--- a/test.xlsx
+++ b/test.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,284 +440,828 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>OrderDate</t>
+          <t>Order ID</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>Order Date</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Rep</t>
+          <t>Order Quantity</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Item</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Units</t>
+          <t>Ship Mode</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Unit Cost</t>
+          <t>Profit</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Unit Price</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 7</t>
+          <t>Customer Name</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Bins</t>
+          <t>Customer Segment</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Intervals</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 11</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Item Type</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Frequency.1</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Rel. Freq</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>% Freq.</t>
+          <t>Product Category</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>41883</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Central</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Desk</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="B2" t="n">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>39967</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28</v>
+      </c>
+      <c r="E2" t="n">
+        <v>51.53</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Express Air</t>
+        </is>
       </c>
       <c r="G2" t="n">
-        <v>125</v>
+        <v>0.35</v>
       </c>
       <c r="H2" t="n">
-        <v>250</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
-        <v>9</v>
-      </c>
-      <c r="K2" t="n">
-        <v>6</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0-9</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Pencil</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>13</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.3023255813953488</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.3023255813953488</v>
+        <v>1.68</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Jonathan Doherty</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Corporate</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>42172</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Central</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Kivell</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Desk</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+        <v>73</v>
+      </c>
+      <c r="B3" t="n">
+        <v>386</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>40567</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Regular Air</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>125</v>
+        <v>-0.03000000000000025</v>
       </c>
       <c r="H3" t="n">
-        <v>625</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>19</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>10-19</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Binder</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>15</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.3488372093023256</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.3488372093023256</v>
+        <v>3.69</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Tracy Poddar</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Corporate</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>42053</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Jones</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Binder</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+        <v>74</v>
+      </c>
+      <c r="B4" t="n">
+        <v>386</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>40567</v>
+      </c>
+      <c r="D4" t="n">
         <v>4</v>
       </c>
+      <c r="E4" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Regular Air</t>
+        </is>
+      </c>
       <c r="G4" t="n">
-        <v>4.99</v>
+        <v>-1.59</v>
       </c>
       <c r="H4" t="n">
-        <v>19.96</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+        <v>3.85</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Tracy Poddar</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Corporate</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>42240</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Sorvino</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Desk</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+        <v>115</v>
+      </c>
+      <c r="B5" t="n">
+        <v>706</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>40794</v>
+      </c>
+      <c r="D5" t="n">
+        <v>42</v>
+      </c>
+      <c r="E5" t="n">
+        <v>75.14</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Regular Air</t>
+        </is>
       </c>
       <c r="G5" t="n">
-        <v>275</v>
+        <v>0.82</v>
       </c>
       <c r="H5" t="n">
-        <v>825</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+        <v>1.76</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Sarah Jordon</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Consumer</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B6" t="n">
+        <v>775</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>40619</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>31.87</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Regular Air</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Peter McVee</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Small Business</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B7" t="n">
+        <v>964</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>40682</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>40.02</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Regular Air</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Stefania Perrino</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Corporate</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2209</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>41099</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Regular Air</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Pete Armstrong</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Consumer</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2309</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>40789</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>27.01</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Regular Air</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>-1.2995</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Eric Barreto</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Consumer</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3078</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>40220</v>
+      </c>
+      <c r="D10" t="n">
+        <v>12</v>
+      </c>
+      <c r="E10" t="n">
+        <v>33.86</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Regular Air</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0.3500000000000005</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Paul Lucas</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Corporate</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3108</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>40394</v>
+      </c>
+      <c r="D11" t="n">
+        <v>36</v>
+      </c>
+      <c r="E11" t="n">
+        <v>65.39</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Regular Air</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Jack Garza</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Corporate</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3488</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>40550</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Regular Air</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.3100000000000023</v>
+      </c>
+      <c r="H12" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Mick Crebagga</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Home Office</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3588</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>40620</v>
+      </c>
+      <c r="D13" t="n">
+        <v>42</v>
+      </c>
+      <c r="E13" t="n">
+        <v>374.38</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Regular Air</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Patrick Jones</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Home Office</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4675</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>40506</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Regular Air</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>-1.15</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Rick Wilson</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Consumer</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5445</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>40384</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>46.48</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Regular Air</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Michael Dominguez</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Home Office</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5569</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>40297</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" t="n">
+        <v>118.97</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Regular Air</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.05999999999999517</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Frank Price</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Corporate</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Furniture</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5636</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>40589</v>
+      </c>
+      <c r="D17" t="n">
+        <v>23</v>
+      </c>
+      <c r="E17" t="n">
+        <v>138.17</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Regular Air</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>-1.09</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Dennis Kane</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Small Business</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>896</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6374</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>40762</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Regular Air</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Ricardo Emerson</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Corporate</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>969</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6979</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>39871</v>
+      </c>
+      <c r="D19" t="n">
+        <v>28</v>
+      </c>
+      <c r="E19" t="n">
+        <v>334.89</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Regular Air</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>-1.4355</v>
+      </c>
+      <c r="H19" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Keith Dawkins</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Home Office</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
